--- a/causas.xlsx
+++ b/causas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROXANA ORTEGA\Documents\GitHub\DataCube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A158E152-6451-4D4F-A298-0C14201A8496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EC4EDE-AAF2-45B1-8B8B-82248263F718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="247">
   <si>
     <t>id_causa_desercion</t>
   </si>
@@ -461,13 +461,313 @@
   </si>
   <si>
     <t>CZ0100</t>
+  </si>
+  <si>
+    <t>CZ0101</t>
+  </si>
+  <si>
+    <t>CZ0102</t>
+  </si>
+  <si>
+    <t>CZ0103</t>
+  </si>
+  <si>
+    <t>CZ0104</t>
+  </si>
+  <si>
+    <t>CZ0105</t>
+  </si>
+  <si>
+    <t>CZ0106</t>
+  </si>
+  <si>
+    <t>CZ0107</t>
+  </si>
+  <si>
+    <t>CZ0108</t>
+  </si>
+  <si>
+    <t>CZ0109</t>
+  </si>
+  <si>
+    <t>CZ0110</t>
+  </si>
+  <si>
+    <t>CZ0111</t>
+  </si>
+  <si>
+    <t>CZ0112</t>
+  </si>
+  <si>
+    <t>CZ0113</t>
+  </si>
+  <si>
+    <t>CZ0114</t>
+  </si>
+  <si>
+    <t>CZ0115</t>
+  </si>
+  <si>
+    <t>CZ0116</t>
+  </si>
+  <si>
+    <t>CZ0117</t>
+  </si>
+  <si>
+    <t>CZ0118</t>
+  </si>
+  <si>
+    <t>CZ0119</t>
+  </si>
+  <si>
+    <t>CZ0120</t>
+  </si>
+  <si>
+    <t>CZ0121</t>
+  </si>
+  <si>
+    <t>CZ0122</t>
+  </si>
+  <si>
+    <t>CZ0123</t>
+  </si>
+  <si>
+    <t>CZ0124</t>
+  </si>
+  <si>
+    <t>CZ0125</t>
+  </si>
+  <si>
+    <t>CZ0126</t>
+  </si>
+  <si>
+    <t>CZ0127</t>
+  </si>
+  <si>
+    <t>CZ0128</t>
+  </si>
+  <si>
+    <t>CZ0129</t>
+  </si>
+  <si>
+    <t>CZ0130</t>
+  </si>
+  <si>
+    <t>CZ0131</t>
+  </si>
+  <si>
+    <t>CZ0132</t>
+  </si>
+  <si>
+    <t>CZ0133</t>
+  </si>
+  <si>
+    <t>CZ0134</t>
+  </si>
+  <si>
+    <t>CZ0135</t>
+  </si>
+  <si>
+    <t>CZ0136</t>
+  </si>
+  <si>
+    <t>CZ0137</t>
+  </si>
+  <si>
+    <t>CZ0138</t>
+  </si>
+  <si>
+    <t>CZ0139</t>
+  </si>
+  <si>
+    <t>CZ0140</t>
+  </si>
+  <si>
+    <t>CZ0141</t>
+  </si>
+  <si>
+    <t>CZ0142</t>
+  </si>
+  <si>
+    <t>CZ0143</t>
+  </si>
+  <si>
+    <t>CZ0144</t>
+  </si>
+  <si>
+    <t>CZ0145</t>
+  </si>
+  <si>
+    <t>CZ0146</t>
+  </si>
+  <si>
+    <t>CZ0147</t>
+  </si>
+  <si>
+    <t>CZ0148</t>
+  </si>
+  <si>
+    <t>CZ0149</t>
+  </si>
+  <si>
+    <t>CZ0150</t>
+  </si>
+  <si>
+    <t>CZ0151</t>
+  </si>
+  <si>
+    <t>CZ0152</t>
+  </si>
+  <si>
+    <t>CZ0153</t>
+  </si>
+  <si>
+    <t>CZ0154</t>
+  </si>
+  <si>
+    <t>CZ0155</t>
+  </si>
+  <si>
+    <t>CZ0156</t>
+  </si>
+  <si>
+    <t>CZ0157</t>
+  </si>
+  <si>
+    <t>CZ0158</t>
+  </si>
+  <si>
+    <t>CZ0159</t>
+  </si>
+  <si>
+    <t>CZ0160</t>
+  </si>
+  <si>
+    <t>CZ0161</t>
+  </si>
+  <si>
+    <t>CZ0162</t>
+  </si>
+  <si>
+    <t>CZ0163</t>
+  </si>
+  <si>
+    <t>CZ0164</t>
+  </si>
+  <si>
+    <t>CZ0165</t>
+  </si>
+  <si>
+    <t>CZ0166</t>
+  </si>
+  <si>
+    <t>CZ0167</t>
+  </si>
+  <si>
+    <t>CZ0168</t>
+  </si>
+  <si>
+    <t>CZ0169</t>
+  </si>
+  <si>
+    <t>CZ0170</t>
+  </si>
+  <si>
+    <t>CZ0171</t>
+  </si>
+  <si>
+    <t>CZ0172</t>
+  </si>
+  <si>
+    <t>CZ0173</t>
+  </si>
+  <si>
+    <t>CZ0174</t>
+  </si>
+  <si>
+    <t>CZ0175</t>
+  </si>
+  <si>
+    <t>CZ0176</t>
+  </si>
+  <si>
+    <t>CZ0177</t>
+  </si>
+  <si>
+    <t>CZ0178</t>
+  </si>
+  <si>
+    <t>CZ0179</t>
+  </si>
+  <si>
+    <t>CZ0180</t>
+  </si>
+  <si>
+    <t>CZ0181</t>
+  </si>
+  <si>
+    <t>CZ0182</t>
+  </si>
+  <si>
+    <t>CZ0183</t>
+  </si>
+  <si>
+    <t>CZ0184</t>
+  </si>
+  <si>
+    <t>CZ0185</t>
+  </si>
+  <si>
+    <t>CZ0186</t>
+  </si>
+  <si>
+    <t>CZ0187</t>
+  </si>
+  <si>
+    <t>CZ0188</t>
+  </si>
+  <si>
+    <t>CZ0189</t>
+  </si>
+  <si>
+    <t>CZ0190</t>
+  </si>
+  <si>
+    <t>CZ0191</t>
+  </si>
+  <si>
+    <t>CZ0192</t>
+  </si>
+  <si>
+    <t>CZ0193</t>
+  </si>
+  <si>
+    <t>CZ0194</t>
+  </si>
+  <si>
+    <t>CZ0195</t>
+  </si>
+  <si>
+    <t>CZ0196</t>
+  </si>
+  <si>
+    <t>CZ0197</t>
+  </si>
+  <si>
+    <t>CZ0198</t>
+  </si>
+  <si>
+    <t>CZ0199</t>
+  </si>
+  <si>
+    <t>CZ0200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +779,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -823,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,7 +2557,1408 @@
         <v>17</v>
       </c>
     </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>151</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>152</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>155</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>156</v>
+      </c>
+      <c r="B111" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" t="s">
+        <v>32</v>
+      </c>
+      <c r="D111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>157</v>
+      </c>
+      <c r="B112" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" t="s">
+        <v>35</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>159</v>
+      </c>
+      <c r="B114" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" t="s">
+        <v>35</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>160</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>161</v>
+      </c>
+      <c r="B116" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>162</v>
+      </c>
+      <c r="B117" t="s">
+        <v>42</v>
+      </c>
+      <c r="C117" t="s">
+        <v>43</v>
+      </c>
+      <c r="D117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>163</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" t="s">
+        <v>45</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>164</v>
+      </c>
+      <c r="B119" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119" t="s">
+        <v>47</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>165</v>
+      </c>
+      <c r="B120" t="s">
+        <v>42</v>
+      </c>
+      <c r="C120" t="s">
+        <v>49</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>166</v>
+      </c>
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" t="s">
+        <v>51</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>167</v>
+      </c>
+      <c r="B122" t="s">
+        <v>53</v>
+      </c>
+      <c r="C122" t="s">
+        <v>54</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>57</v>
+      </c>
+      <c r="D124" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>170</v>
+      </c>
+      <c r="B125" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>171</v>
+      </c>
+      <c r="B126" t="s">
+        <v>42</v>
+      </c>
+      <c r="C126" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>172</v>
+      </c>
+      <c r="B127" t="s">
+        <v>61</v>
+      </c>
+      <c r="C127" t="s">
+        <v>62</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>173</v>
+      </c>
+      <c r="B128" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>174</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>65</v>
+      </c>
+      <c r="D129" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>175</v>
+      </c>
+      <c r="B130" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>176</v>
+      </c>
+      <c r="B131" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131" t="s">
+        <v>47</v>
+      </c>
+      <c r="D131" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>177</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>69</v>
+      </c>
+      <c r="D132" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>178</v>
+      </c>
+      <c r="B133" t="s">
+        <v>31</v>
+      </c>
+      <c r="C133" t="s">
+        <v>71</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>179</v>
+      </c>
+      <c r="B134" t="s">
+        <v>61</v>
+      </c>
+      <c r="C134" t="s">
+        <v>73</v>
+      </c>
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>180</v>
+      </c>
+      <c r="B135" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>181</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>182</v>
+      </c>
+      <c r="B137" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" t="s">
+        <v>57</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>183</v>
+      </c>
+      <c r="B138" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>184</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
+        <v>57</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>185</v>
+      </c>
+      <c r="B140" t="s">
+        <v>53</v>
+      </c>
+      <c r="C140" t="s">
+        <v>54</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>186</v>
+      </c>
+      <c r="B141" t="s">
+        <v>42</v>
+      </c>
+      <c r="C141" t="s">
+        <v>49</v>
+      </c>
+      <c r="D141" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>187</v>
+      </c>
+      <c r="B142" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142" t="s">
+        <v>47</v>
+      </c>
+      <c r="D142" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>188</v>
+      </c>
+      <c r="B143" t="s">
+        <v>61</v>
+      </c>
+      <c r="C143" t="s">
+        <v>62</v>
+      </c>
+      <c r="D143" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>189</v>
+      </c>
+      <c r="B144" t="s">
+        <v>61</v>
+      </c>
+      <c r="C144" t="s">
+        <v>62</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>190</v>
+      </c>
+      <c r="B145" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" t="s">
+        <v>39</v>
+      </c>
+      <c r="D145" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>191</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>69</v>
+      </c>
+      <c r="D146" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>192</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>193</v>
+      </c>
+      <c r="B148" t="s">
+        <v>31</v>
+      </c>
+      <c r="C148" t="s">
+        <v>32</v>
+      </c>
+      <c r="D148" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>194</v>
+      </c>
+      <c r="B149" t="s">
+        <v>53</v>
+      </c>
+      <c r="C149" t="s">
+        <v>89</v>
+      </c>
+      <c r="D149" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>195</v>
+      </c>
+      <c r="B150" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" t="s">
+        <v>45</v>
+      </c>
+      <c r="D150" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>196</v>
+      </c>
+      <c r="B151" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" t="s">
+        <v>51</v>
+      </c>
+      <c r="D151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>197</v>
+      </c>
+      <c r="B152" t="s">
+        <v>53</v>
+      </c>
+      <c r="C152" t="s">
+        <v>93</v>
+      </c>
+      <c r="D152" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>198</v>
+      </c>
+      <c r="B153" t="s">
+        <v>53</v>
+      </c>
+      <c r="C153" t="s">
+        <v>54</v>
+      </c>
+      <c r="D153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>199</v>
+      </c>
+      <c r="B154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C154" t="s">
+        <v>89</v>
+      </c>
+      <c r="D154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>200</v>
+      </c>
+      <c r="B155" t="s">
+        <v>31</v>
+      </c>
+      <c r="C155" t="s">
+        <v>32</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>201</v>
+      </c>
+      <c r="B156" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" t="s">
+        <v>98</v>
+      </c>
+      <c r="D156" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>202</v>
+      </c>
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" t="s">
+        <v>57</v>
+      </c>
+      <c r="D157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>203</v>
+      </c>
+      <c r="B158" t="s">
+        <v>42</v>
+      </c>
+      <c r="C158" t="s">
+        <v>49</v>
+      </c>
+      <c r="D158" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>204</v>
+      </c>
+      <c r="B159" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>205</v>
+      </c>
+      <c r="B160" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160" t="s">
+        <v>47</v>
+      </c>
+      <c r="D160" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>206</v>
+      </c>
+      <c r="B161" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" t="s">
+        <v>45</v>
+      </c>
+      <c r="D161" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>207</v>
+      </c>
+      <c r="B162" t="s">
+        <v>31</v>
+      </c>
+      <c r="C162" t="s">
+        <v>35</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>208</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>65</v>
+      </c>
+      <c r="D163" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>209</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>69</v>
+      </c>
+      <c r="D164" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>210</v>
+      </c>
+      <c r="B165" t="s">
+        <v>61</v>
+      </c>
+      <c r="C165" t="s">
+        <v>108</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>211</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>65</v>
+      </c>
+      <c r="D166" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>212</v>
+      </c>
+      <c r="B167" t="s">
+        <v>31</v>
+      </c>
+      <c r="C167" t="s">
+        <v>32</v>
+      </c>
+      <c r="D167" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>213</v>
+      </c>
+      <c r="B168" t="s">
+        <v>61</v>
+      </c>
+      <c r="C168" t="s">
+        <v>108</v>
+      </c>
+      <c r="D168" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>214</v>
+      </c>
+      <c r="B169" t="s">
+        <v>53</v>
+      </c>
+      <c r="C169" t="s">
+        <v>89</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>215</v>
+      </c>
+      <c r="B170" t="s">
+        <v>27</v>
+      </c>
+      <c r="C170" t="s">
+        <v>114</v>
+      </c>
+      <c r="D170" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>216</v>
+      </c>
+      <c r="B171" t="s">
+        <v>27</v>
+      </c>
+      <c r="C171" t="s">
+        <v>47</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>217</v>
+      </c>
+      <c r="B172" t="s">
+        <v>53</v>
+      </c>
+      <c r="C172" t="s">
+        <v>93</v>
+      </c>
+      <c r="D172" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>218</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>65</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>219</v>
+      </c>
+      <c r="B174" t="s">
+        <v>61</v>
+      </c>
+      <c r="C174" t="s">
+        <v>108</v>
+      </c>
+      <c r="D174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>220</v>
+      </c>
+      <c r="B175" t="s">
+        <v>27</v>
+      </c>
+      <c r="C175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>221</v>
+      </c>
+      <c r="B176" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" t="s">
+        <v>23</v>
+      </c>
+      <c r="D176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>222</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>65</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>223</v>
+      </c>
+      <c r="B178" t="s">
+        <v>61</v>
+      </c>
+      <c r="C178" t="s">
+        <v>73</v>
+      </c>
+      <c r="D178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>224</v>
+      </c>
+      <c r="B179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>225</v>
+      </c>
+      <c r="B180" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" t="s">
+        <v>98</v>
+      </c>
+      <c r="D180" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>226</v>
+      </c>
+      <c r="B181" t="s">
+        <v>27</v>
+      </c>
+      <c r="C181" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>227</v>
+      </c>
+      <c r="B182" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182" t="s">
+        <v>39</v>
+      </c>
+      <c r="D182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>228</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>69</v>
+      </c>
+      <c r="D183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>229</v>
+      </c>
+      <c r="B184" t="s">
+        <v>27</v>
+      </c>
+      <c r="C184" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B185" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185" t="s">
+        <v>23</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>231</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>131</v>
+      </c>
+      <c r="D186" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>232</v>
+      </c>
+      <c r="B187" t="s">
+        <v>31</v>
+      </c>
+      <c r="C187" t="s">
+        <v>71</v>
+      </c>
+      <c r="D187" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>233</v>
+      </c>
+      <c r="B188" t="s">
+        <v>61</v>
+      </c>
+      <c r="C188" t="s">
+        <v>108</v>
+      </c>
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>234</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" t="s">
+        <v>57</v>
+      </c>
+      <c r="D189" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>235</v>
+      </c>
+      <c r="B190" t="s">
+        <v>27</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>236</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>16</v>
+      </c>
+      <c r="D191" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>237</v>
+      </c>
+      <c r="B192" t="s">
+        <v>31</v>
+      </c>
+      <c r="C192" t="s">
+        <v>32</v>
+      </c>
+      <c r="D192" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>238</v>
+      </c>
+      <c r="B193" t="s">
+        <v>19</v>
+      </c>
+      <c r="C193" t="s">
+        <v>39</v>
+      </c>
+      <c r="D193" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>239</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" t="s">
+        <v>69</v>
+      </c>
+      <c r="D194" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>240</v>
+      </c>
+      <c r="B195" t="s">
+        <v>27</v>
+      </c>
+      <c r="C195" t="s">
+        <v>114</v>
+      </c>
+      <c r="D195" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>241</v>
+      </c>
+      <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>242</v>
+      </c>
+      <c r="B197" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>243</v>
+      </c>
+      <c r="B198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C198" t="s">
+        <v>57</v>
+      </c>
+      <c r="D198" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>244</v>
+      </c>
+      <c r="B199" t="s">
+        <v>22</v>
+      </c>
+      <c r="C199" t="s">
+        <v>98</v>
+      </c>
+      <c r="D199" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>245</v>
+      </c>
+      <c r="B200" t="s">
+        <v>31</v>
+      </c>
+      <c r="C200" t="s">
+        <v>35</v>
+      </c>
+      <c r="D200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>246</v>
+      </c>
+      <c r="B201" t="s">
+        <v>42</v>
+      </c>
+      <c r="C201" t="s">
+        <v>43</v>
+      </c>
+      <c r="D201" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>